--- a/Data/aearep-1116/candidatepackages.xlsx
+++ b/Data/aearep-1116/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -22,102 +22,66 @@
     <t>outreg2</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
-    <t>ivreg2</t>
+    <t>coefplot</t>
   </si>
   <si>
     <t>unique</t>
   </si>
   <si>
-    <t>coefplot</t>
-  </si>
-  <si>
     <t>kountry</t>
   </si>
   <si>
-    <t>ranktest</t>
-  </si>
-  <si>
     <t>spmap</t>
   </si>
   <si>
     <t>shp2dta</t>
   </si>
   <si>
-    <t>carryforward</t>
-  </si>
-  <si>
     <t>xtivreg2</t>
   </si>
   <si>
-    <t>mif2dta</t>
-  </si>
-  <si>
     <t>corrtex</t>
   </si>
   <si>
     <t>table1</t>
   </si>
   <si>
-    <t>mkcorr</t>
-  </si>
-  <si>
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
+    <t>title</t>
+  </si>
+  <si>
+    <t>cluster</t>
   </si>
   <si>
     <t>mlt</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>cluster</t>
-  </si>
-  <si>
     <t>white</t>
   </si>
   <si>
-    <t>msp</t>
+    <t>median</t>
   </si>
   <si>
     <t>index</t>
   </si>
   <si>
-    <t>lars</t>
-  </si>
-  <si>
-    <t>median</t>
-  </si>
-  <si>
     <t>cid</t>
   </si>
   <si>
+    <t>spmon</t>
+  </si>
+  <si>
     <t>adjust</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>spmon</t>
-  </si>
-  <si>
-    <t>zip</t>
+    <t>usd</t>
   </si>
   <si>
     <t>oda</t>
   </si>
   <si>
-    <t>usd</t>
-  </si>
-  <si>
     <t>digits</t>
   </si>
   <si>
@@ -133,24 +97,12 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1116</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1116/120068</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1116/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>template-config.do</t>
-  </si>
-  <si>
     <t>Analyse data.do</t>
   </si>
   <si>
@@ -158,12 +110,6 @@
   </si>
   <si>
     <t>Prepare data.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -207,7 +153,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D23"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -215,13 +161,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
@@ -229,7 +175,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -241,7 +187,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -253,7 +199,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -265,7 +211,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -277,7 +223,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -289,7 +235,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -301,7 +247,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -313,7 +259,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -325,7 +271,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -337,7 +283,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>37</v>
+        <v>293</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -349,10 +295,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>49</v>
+        <v>499</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D12"/>
     </row>
@@ -361,10 +307,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>68</v>
+        <v>563</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D13"/>
     </row>
@@ -373,10 +319,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>77</v>
+        <v>565</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.18677686154842377</v>
       </c>
       <c r="D14"/>
     </row>
@@ -385,10 +331,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>92</v>
+        <v>712</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D15"/>
     </row>
@@ -397,10 +343,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>172</v>
+        <v>955</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D16"/>
     </row>
@@ -409,10 +355,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>267</v>
+        <v>998</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D17"/>
     </row>
@@ -421,10 +367,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>279</v>
+        <v>1561</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.51603305339813232</v>
       </c>
       <c r="D18"/>
     </row>
@@ -433,10 +379,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>440</v>
+        <v>1699</v>
       </c>
       <c r="C19">
-        <v>0.14588859677314758</v>
+        <v>0.56165289878845215</v>
       </c>
       <c r="D19"/>
     </row>
@@ -445,10 +391,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>565</v>
+        <v>1796</v>
       </c>
       <c r="C20">
-        <v>0.18733422458171844</v>
+        <v>0.5937190055847168</v>
       </c>
       <c r="D20"/>
     </row>
@@ -457,10 +403,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>566</v>
+        <v>2008</v>
       </c>
       <c r="C21">
-        <v>0.18766577541828156</v>
+        <v>0.66380167007446289</v>
       </c>
       <c r="D21"/>
     </row>
@@ -469,10 +415,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>745</v>
+        <v>2048</v>
       </c>
       <c r="C22">
-        <v>0.24701590836048126</v>
+        <v>0.67702478170394897</v>
       </c>
       <c r="D22"/>
     </row>
@@ -481,156 +427,12 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>970</v>
+        <v>2540</v>
       </c>
       <c r="C23">
-        <v>0.32161805033683777</v>
+        <v>0.83966940641403198</v>
       </c>
       <c r="D23"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>985</v>
-      </c>
-      <c r="C24">
-        <v>0.32659152150154114</v>
-      </c>
-      <c r="D24"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>1124</v>
-      </c>
-      <c r="C25">
-        <v>0.37267905473709106</v>
-      </c>
-      <c r="D25"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>1133</v>
-      </c>
-      <c r="C26">
-        <v>0.37566313147544861</v>
-      </c>
-      <c r="D26"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>1464</v>
-      </c>
-      <c r="C27">
-        <v>0.485411137342453</v>
-      </c>
-      <c r="D27"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>1793</v>
-      </c>
-      <c r="C28">
-        <v>0.59449601173400879</v>
-      </c>
-      <c r="D28"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>1798</v>
-      </c>
-      <c r="C29">
-        <v>0.5961538553237915</v>
-      </c>
-      <c r="D29"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>1817</v>
-      </c>
-      <c r="C30">
-        <v>0.60245358943939209</v>
-      </c>
-      <c r="D30"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>1853</v>
-      </c>
-      <c r="C31">
-        <v>0.61438989639282227</v>
-      </c>
-      <c r="D31"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>1859</v>
-      </c>
-      <c r="C32">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D32"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>2041</v>
-      </c>
-      <c r="C33">
-        <v>0.6767241358757019</v>
-      </c>
-      <c r="D33"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>2217</v>
-      </c>
-      <c r="C34">
-        <v>0.73507958650588989</v>
-      </c>
-      <c r="D34"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>2375</v>
-      </c>
-      <c r="C35">
-        <v>0.78746682405471802</v>
-      </c>
-      <c r="D35"/>
     </row>
   </sheetData>
 </worksheet>
@@ -638,71 +440,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
